--- a/TDS.xlsx
+++ b/TDS.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Djole\IdeaProjects\qa-job-fair-puzzle\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79F9BC5-4153-4BA1-8CC6-F602A11D6CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="17475" yWindow="480" windowWidth="16140" windowHeight="11595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,119 +25,348 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
-    <t xml:space="preserve">Description</t>
+    <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">STATUS</t>
+    <t>STATUS</t>
   </si>
   <si>
-    <t xml:space="preserve">COMMENT</t>
+    <t>COMMENT</t>
   </si>
   <si>
-    <t xml:space="preserve">Open Questions</t>
+    <t>Open Questions</t>
   </si>
   <si>
     <t xml:space="preserve">PLAYER  </t>
   </si>
   <si>
-    <t xml:space="preserve">If player takes damage by 6 his health should decrease by 6</t>
+    <t>If player takes damage by 6 his health should decrease by 6</t>
   </si>
   <si>
-    <t xml:space="preserve">Failed</t>
+    <t>Failed</t>
   </si>
   <si>
     <t xml:space="preserve">Example of question: Can user end turn without playing any of his cards? Your answer: I assume he can. </t>
   </si>
   <si>
-    <t xml:space="preserve">Player draws a card -&gt; number of card in his deck decreases </t>
+    <t>Passed</t>
   </si>
   <si>
-    <t xml:space="preserve">Passed</t>
+    <t>GAME</t>
   </si>
   <si>
-    <t xml:space="preserve">GAME</t>
+    <t>Game ends when on of the players loses all health</t>
   </si>
   <si>
-    <t xml:space="preserve">Game ends when on of the players loses all health</t>
+    <t>One player can not play two turns in a row</t>
   </si>
   <si>
-    <t xml:space="preserve">One player can not play two turns in a row</t>
+    <t>CARDS</t>
   </si>
   <si>
-    <t xml:space="preserve">CARDS</t>
+    <r>
+      <t xml:space="preserve">Player hp actually gets swapped with the amount of damage being dealt to him, due to a logical error in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>takeDamage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> method, total/current health should have taken damage subtracted from it, instead of being equal to damage taken as it is currently written in that method.</t>
+    </r>
+  </si>
+  <si>
+    <t>Draw card before playing/ending a turn -&gt; expect an error, unable to draw</t>
+  </si>
+  <si>
+    <t>Card gets drawn from the deck anyway, having 7 cards in hand</t>
+  </si>
+  <si>
+    <t>Damage does not get reset, as there is a logical error in the resetDamage() method. If called, damage should not be equal to damage, but rather 0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player draws a card -&gt; number of cards in his deck decreases </t>
+  </si>
+  <si>
+    <t>Verify shuffling the deck changes the order of the player's cards</t>
+  </si>
+  <si>
+    <r>
+      <t>Shuffling the deck does not change the order. Error seems to be tied to the method,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> shuffleDeck()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - which isn't actually implemented.</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify player's hand is empty upon instantiation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Number of cards in deck at start -&gt; expected (exactly </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Upon instantiation player's HP is able to be set to more than 20. Documentation states that starting HP should always be 20.</t>
+  </si>
+  <si>
+    <t>Upon instantiation player's HP is able to be set to less than 20. Documentation states that starting HP should always be 20.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total amount of player HP at the start of the game (expected -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify total amount of player HP cannot be &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (21 or more)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify total amount of player HP cannot be &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (19 or less)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify damage reset reverts player's damage back -&gt; expected </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify players default starting damage -&gt; expected </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Number of cards a player in hand after initial draw (expected -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -156,7 +390,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -164,89 +398,59 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -305,35 +509,342 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="57.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="12.63"/>
+    <col min="1" max="1" width="63.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="42.5703125" customWidth="1"/>
+    <col min="4" max="6" width="12.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44" style="2" customWidth="1"/>
+    <col min="8" max="1025" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -350,7 +861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -361,5182 +872,5257 @@
       <c r="F2" s="7"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="C4" s="15"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="9"/>
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="15"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="9"/>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="15"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>10</v>
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>11</v>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>28</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="15"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>12</v>
+    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>27</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="9"/>
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="9"/>
+    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>13</v>
-      </c>
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="9"/>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="15"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="9"/>
+    <row r="14" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="9"/>
+    <row r="15" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="9"/>
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C16" s="15"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="9"/>
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="9"/>
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="9"/>
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="9"/>
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B20" s="7"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="9"/>
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B21" s="7"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="9"/>
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B22" s="7"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="9"/>
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B23" s="7"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="9"/>
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B24" s="7"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="9"/>
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B25" s="7"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="9"/>
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B26" s="7"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="9"/>
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="7"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="9"/>
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="7"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="9"/>
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="7"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="9"/>
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B30" s="7"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="9"/>
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B31" s="7"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="9"/>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="7"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="9"/>
+    <row r="33" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B33" s="7"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="9"/>
+    <row r="34" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B34" s="7"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="9"/>
+    <row r="35" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B35" s="7"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="9"/>
+    <row r="36" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B36" s="7"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="9"/>
+    <row r="37" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B37" s="7"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="9"/>
+    <row r="38" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B38" s="7"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="9"/>
+    <row r="39" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B39" s="7"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="9"/>
+    <row r="40" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B40" s="7"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="9"/>
+    <row r="41" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B41" s="7"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="9"/>
+    <row r="42" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B42" s="7"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="9"/>
+    <row r="43" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B43" s="7"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="9"/>
+    <row r="44" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B44" s="7"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="9"/>
+    <row r="45" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B45" s="7"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="9"/>
+    <row r="46" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B46" s="7"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="9"/>
+    <row r="47" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B47" s="7"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="9"/>
+    <row r="48" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B48" s="7"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="9"/>
+    <row r="49" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B49" s="7"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="9"/>
+    <row r="50" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B50" s="7"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="9"/>
+    <row r="51" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B51" s="7"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="9"/>
+    <row r="52" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B52" s="7"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="9"/>
+    <row r="53" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B53" s="7"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="9"/>
+    <row r="54" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B54" s="7"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="9"/>
+    <row r="55" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B55" s="7"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="9"/>
+    <row r="56" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B56" s="7"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="9"/>
+    <row r="57" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B57" s="7"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="9"/>
+    <row r="58" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B58" s="7"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="9"/>
+    <row r="59" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B59" s="7"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="9"/>
+    <row r="60" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B60" s="7"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="9"/>
+    <row r="61" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B61" s="7"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="9"/>
+    <row r="62" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B62" s="7"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="9"/>
+    <row r="63" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B63" s="7"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="9"/>
+    <row r="64" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B64" s="7"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="9"/>
+    <row r="65" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B65" s="7"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="9"/>
+    <row r="66" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B66" s="7"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="9"/>
+    <row r="67" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B67" s="7"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="9"/>
+    <row r="68" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B68" s="7"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="9"/>
+    <row r="69" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B69" s="7"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="9"/>
+    <row r="70" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B70" s="7"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="9"/>
+    <row r="71" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B71" s="7"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="9"/>
+    <row r="72" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B72" s="7"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="9"/>
+    <row r="73" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B73" s="7"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="9"/>
+    <row r="74" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B74" s="7"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="9"/>
+    <row r="75" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B75" s="7"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="9"/>
+    <row r="76" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B76" s="7"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="9"/>
+    <row r="77" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B77" s="7"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="9"/>
+    <row r="78" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B78" s="7"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="9"/>
+    <row r="79" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B79" s="7"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="9"/>
+    <row r="80" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B80" s="7"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="9"/>
+    <row r="81" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B81" s="7"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="9"/>
+    <row r="82" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B82" s="7"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="9"/>
+    <row r="83" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B83" s="7"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="9"/>
+    <row r="84" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B84" s="7"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="9"/>
+    <row r="85" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B85" s="7"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="9"/>
+    <row r="86" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B86" s="7"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="9"/>
+    <row r="87" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B87" s="7"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="9"/>
+    <row r="88" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B88" s="7"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="9"/>
+    <row r="89" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B89" s="7"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="9"/>
+    <row r="90" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B90" s="7"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="9"/>
+    <row r="91" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B91" s="7"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="9"/>
+    <row r="92" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B92" s="7"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="9"/>
+    <row r="93" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B93" s="7"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="9"/>
+    <row r="94" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B94" s="7"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="9"/>
+    <row r="95" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B95" s="7"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="9"/>
+    <row r="96" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B96" s="7"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="9"/>
+    <row r="97" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B97" s="7"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="9"/>
+    <row r="98" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B98" s="7"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="9"/>
+    <row r="99" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B99" s="7"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="9"/>
+    <row r="100" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B100" s="7"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="9"/>
+    <row r="101" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B101" s="7"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="9"/>
+    <row r="102" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B102" s="7"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="9"/>
+    <row r="103" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B103" s="7"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="9"/>
+    <row r="104" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B104" s="7"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="9"/>
+    <row r="105" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B105" s="7"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="9"/>
+    <row r="106" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B106" s="7"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="9"/>
+    <row r="107" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B107" s="7"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="9"/>
+    <row r="108" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B108" s="7"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="9"/>
+    <row r="109" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B109" s="7"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="9"/>
+    <row r="110" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B110" s="7"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="9"/>
+    <row r="111" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B111" s="7"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="9"/>
+    <row r="112" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B112" s="7"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="9"/>
+    <row r="113" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B113" s="7"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="9"/>
+    <row r="114" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B114" s="7"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="9"/>
+    <row r="115" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B115" s="7"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="9"/>
+    <row r="116" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B116" s="7"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="9"/>
+    <row r="117" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B117" s="7"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="9"/>
+    <row r="118" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B118" s="7"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="9"/>
+    <row r="119" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B119" s="7"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="9"/>
+    <row r="120" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B120" s="7"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="9"/>
+    <row r="121" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B121" s="7"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="9"/>
+    <row r="122" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B122" s="7"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="9"/>
+    <row r="123" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B123" s="7"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="9"/>
+    <row r="124" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B124" s="7"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="9"/>
+    <row r="125" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B125" s="7"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="9"/>
+    <row r="126" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B126" s="7"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="9"/>
+    <row r="127" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B127" s="7"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="9"/>
+    <row r="128" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B128" s="7"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="9"/>
+    <row r="129" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B129" s="7"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="9"/>
+    <row r="130" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B130" s="7"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="9"/>
+    <row r="131" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B131" s="7"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="9"/>
+    <row r="132" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B132" s="7"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="9"/>
+    <row r="133" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B133" s="7"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="9"/>
+    <row r="134" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B134" s="7"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="9"/>
+    <row r="135" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B135" s="7"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="9"/>
+    <row r="136" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B136" s="7"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="9"/>
+    <row r="137" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B137" s="7"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="9"/>
+    <row r="138" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B138" s="7"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="9"/>
+    <row r="139" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B139" s="7"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="9"/>
+    <row r="140" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B140" s="7"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="9"/>
+    <row r="141" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B141" s="7"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="9"/>
+    <row r="142" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B142" s="7"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="9"/>
+    <row r="143" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B143" s="7"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="9"/>
+    <row r="144" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B144" s="7"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="9"/>
+    <row r="145" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B145" s="7"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="9"/>
+    <row r="146" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B146" s="7"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="9"/>
+    <row r="147" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B147" s="7"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
     </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
     </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
     </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
       <c r="F229" s="4"/>
     </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
       <c r="F230" s="4"/>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
     </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
       <c r="F233" s="4"/>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
       <c r="F235" s="4"/>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
     </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
     </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
     </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
     </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
     </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
       <c r="F244" s="4"/>
     </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
     </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
     </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
     </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
     </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
     </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
     </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
       <c r="F251" s="4"/>
     </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
     </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
       <c r="F253" s="4"/>
     </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
     </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
     </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
       <c r="F257" s="4"/>
     </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
     </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
     </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
     </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
     </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
     </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
       <c r="F264" s="4"/>
     </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
     </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
       <c r="F266" s="4"/>
     </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
       <c r="F267" s="4"/>
     </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
       <c r="F268" s="4"/>
     </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
     </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
     </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
     </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
       <c r="F272" s="4"/>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
     </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
     </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
     </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
     </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
     </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
     </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
     </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
     </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
       <c r="F283" s="4"/>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
     </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
     </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
     </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
       <c r="F287" s="4"/>
     </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
       <c r="F288" s="4"/>
     </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
     </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
       <c r="F290" s="4"/>
     </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
     </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
       <c r="F293" s="4"/>
     </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
     </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
     </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
     </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
     </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
     </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
       <c r="F299" s="4"/>
     </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
     </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
       <c r="F301" s="4"/>
     </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
     </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
       <c r="F303" s="4"/>
     </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
     </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
     </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
     </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
       <c r="F307" s="4"/>
     </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
     </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
     </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
     </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
     </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
     </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
     </row>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
     </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
     </row>
-    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
       <c r="F316" s="4"/>
     </row>
-    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
       <c r="F317" s="4"/>
     </row>
-    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
     </row>
-    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
       <c r="F319" s="4"/>
     </row>
-    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
     </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
     </row>
-    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
     </row>
-    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
     </row>
-    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
     </row>
-    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
       <c r="F325" s="4"/>
     </row>
-    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
     </row>
-    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
       <c r="F327" s="4"/>
     </row>
-    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
       <c r="F328" s="4"/>
     </row>
-    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
     </row>
-    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
     </row>
-    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
       <c r="F331" s="4"/>
     </row>
-    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
     </row>
-    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
     </row>
-    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
     </row>
-    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
       <c r="F335" s="4"/>
     </row>
-    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
       <c r="F336" s="4"/>
     </row>
-    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
       <c r="F337" s="4"/>
     </row>
-    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
       <c r="F338" s="4"/>
     </row>
-    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
       <c r="F339" s="4"/>
     </row>
-    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
       <c r="F340" s="4"/>
     </row>
-    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
       <c r="F341" s="4"/>
     </row>
-    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
       <c r="F342" s="4"/>
     </row>
-    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
     </row>
-    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
       <c r="F344" s="4"/>
     </row>
-    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
       <c r="F345" s="4"/>
     </row>
-    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
       <c r="F346" s="4"/>
     </row>
-    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
       <c r="F347" s="4"/>
     </row>
-    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
     </row>
-    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
       <c r="F349" s="4"/>
     </row>
-    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
       <c r="F350" s="4"/>
     </row>
-    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
     </row>
-    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
     </row>
-    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
       <c r="F353" s="4"/>
     </row>
-    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
       <c r="F354" s="4"/>
     </row>
-    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
     </row>
-    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
       <c r="F356" s="4"/>
     </row>
-    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
       <c r="F357" s="4"/>
     </row>
-    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
     </row>
-    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
     </row>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
     </row>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
     </row>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
     </row>
-    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
     </row>
-    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
       <c r="F364" s="4"/>
     </row>
-    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
     </row>
-    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
       <c r="F366" s="4"/>
     </row>
-    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
       <c r="F367" s="4"/>
     </row>
-    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
       <c r="F368" s="4"/>
     </row>
-    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
       <c r="F369" s="4"/>
     </row>
-    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
       <c r="F370" s="4"/>
     </row>
-    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
       <c r="F371" s="4"/>
     </row>
-    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
       <c r="F372" s="4"/>
     </row>
-    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
       <c r="F373" s="4"/>
     </row>
-    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
       <c r="F374" s="4"/>
     </row>
-    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
       <c r="F375" s="4"/>
     </row>
-    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
       <c r="F376" s="4"/>
     </row>
-    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
       <c r="F377" s="4"/>
     </row>
-    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
       <c r="F378" s="4"/>
     </row>
-    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
       <c r="F379" s="4"/>
     </row>
-    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
       <c r="F380" s="4"/>
     </row>
-    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
       <c r="F381" s="4"/>
     </row>
-    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
       <c r="F382" s="4"/>
     </row>
-    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
       <c r="F383" s="4"/>
     </row>
-    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
       <c r="F384" s="4"/>
     </row>
-    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
       <c r="F385" s="4"/>
     </row>
-    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
       <c r="F386" s="4"/>
     </row>
-    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
       <c r="F387" s="4"/>
     </row>
-    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
       <c r="F388" s="4"/>
     </row>
-    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
       <c r="F389" s="4"/>
     </row>
-    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
       <c r="F390" s="4"/>
     </row>
-    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
       <c r="F391" s="4"/>
     </row>
-    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
       <c r="F392" s="4"/>
     </row>
-    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
       <c r="F393" s="4"/>
     </row>
-    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
       <c r="F394" s="4"/>
     </row>
-    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
       <c r="F395" s="4"/>
     </row>
-    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
       <c r="F396" s="4"/>
     </row>
-    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
       <c r="F397" s="4"/>
     </row>
-    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
       <c r="F398" s="4"/>
     </row>
-    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
       <c r="F399" s="4"/>
     </row>
-    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
       <c r="F400" s="4"/>
     </row>
-    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
       <c r="F401" s="4"/>
     </row>
-    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
       <c r="F402" s="4"/>
     </row>
-    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
       <c r="F403" s="4"/>
     </row>
-    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
       <c r="F404" s="4"/>
     </row>
-    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
       <c r="F405" s="4"/>
     </row>
-    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
       <c r="F406" s="4"/>
     </row>
-    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
       <c r="F407" s="4"/>
     </row>
-    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
       <c r="F408" s="4"/>
     </row>
-    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
       <c r="F409" s="4"/>
     </row>
-    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
       <c r="F410" s="4"/>
     </row>
-    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
       <c r="F411" s="4"/>
     </row>
-    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
       <c r="F412" s="4"/>
     </row>
-    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
       <c r="F413" s="4"/>
     </row>
-    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
       <c r="F414" s="4"/>
     </row>
-    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
       <c r="F415" s="4"/>
     </row>
-    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
       <c r="F416" s="4"/>
     </row>
-    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
       <c r="F417" s="4"/>
     </row>
-    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
       <c r="F418" s="4"/>
     </row>
-    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
       <c r="F419" s="4"/>
     </row>
-    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
       <c r="F420" s="4"/>
     </row>
-    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
       <c r="F421" s="4"/>
     </row>
-    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
       <c r="F422" s="4"/>
     </row>
-    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
       <c r="F423" s="4"/>
     </row>
-    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
       <c r="F424" s="4"/>
     </row>
-    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
       <c r="F425" s="4"/>
     </row>
-    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
       <c r="F426" s="4"/>
     </row>
-    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
     </row>
-    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
       <c r="F428" s="4"/>
     </row>
-    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
       <c r="F429" s="4"/>
     </row>
-    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
       <c r="F430" s="4"/>
     </row>
-    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
       <c r="F431" s="4"/>
     </row>
-    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
       <c r="F432" s="4"/>
     </row>
-    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
       <c r="F433" s="4"/>
     </row>
-    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
       <c r="F434" s="4"/>
     </row>
-    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
       <c r="F435" s="4"/>
     </row>
-    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
       <c r="F436" s="4"/>
     </row>
-    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
       <c r="F437" s="4"/>
     </row>
-    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
       <c r="F438" s="4"/>
     </row>
-    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
       <c r="F439" s="4"/>
     </row>
-    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
       <c r="F440" s="4"/>
     </row>
-    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
       <c r="F441" s="4"/>
     </row>
-    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
       <c r="F442" s="4"/>
     </row>
-    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
       <c r="F443" s="4"/>
     </row>
-    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
       <c r="F444" s="4"/>
     </row>
-    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
       <c r="F445" s="4"/>
     </row>
-    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
       <c r="F446" s="4"/>
     </row>
-    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
       <c r="F447" s="4"/>
     </row>
-    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
       <c r="F448" s="4"/>
     </row>
-    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
       <c r="F449" s="4"/>
     </row>
-    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
       <c r="F450" s="4"/>
     </row>
-    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
       <c r="F451" s="4"/>
     </row>
-    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
       <c r="F452" s="4"/>
     </row>
-    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
       <c r="F453" s="4"/>
     </row>
-    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
       <c r="F454" s="4"/>
     </row>
-    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
       <c r="F455" s="4"/>
     </row>
-    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
       <c r="F456" s="4"/>
     </row>
-    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
       <c r="F457" s="4"/>
     </row>
-    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
       <c r="F458" s="4"/>
     </row>
-    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
       <c r="F459" s="4"/>
     </row>
-    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
       <c r="F460" s="4"/>
     </row>
-    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
       <c r="F461" s="4"/>
     </row>
-    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
       <c r="F462" s="4"/>
     </row>
-    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
       <c r="F463" s="4"/>
     </row>
-    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
       <c r="F464" s="4"/>
     </row>
-    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
       <c r="F465" s="4"/>
     </row>
-    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D466" s="4"/>
       <c r="E466" s="4"/>
       <c r="F466" s="4"/>
     </row>
-    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
       <c r="F467" s="4"/>
     </row>
-    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
       <c r="F468" s="4"/>
     </row>
-    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
       <c r="F469" s="4"/>
     </row>
-    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
       <c r="F470" s="4"/>
     </row>
-    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
       <c r="F471" s="4"/>
     </row>
-    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
       <c r="F472" s="4"/>
     </row>
-    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
       <c r="F473" s="4"/>
     </row>
-    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D474" s="4"/>
       <c r="E474" s="4"/>
       <c r="F474" s="4"/>
     </row>
-    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
       <c r="F475" s="4"/>
     </row>
-    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
       <c r="F476" s="4"/>
     </row>
-    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
       <c r="F477" s="4"/>
     </row>
-    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D478" s="4"/>
       <c r="E478" s="4"/>
       <c r="F478" s="4"/>
     </row>
-    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
       <c r="F479" s="4"/>
     </row>
-    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
       <c r="F480" s="4"/>
     </row>
-    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D481" s="4"/>
       <c r="E481" s="4"/>
       <c r="F481" s="4"/>
     </row>
-    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D482" s="4"/>
       <c r="E482" s="4"/>
       <c r="F482" s="4"/>
     </row>
-    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D483" s="4"/>
       <c r="E483" s="4"/>
       <c r="F483" s="4"/>
     </row>
-    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D484" s="4"/>
       <c r="E484" s="4"/>
       <c r="F484" s="4"/>
     </row>
-    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D485" s="4"/>
       <c r="E485" s="4"/>
       <c r="F485" s="4"/>
     </row>
-    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D486" s="4"/>
       <c r="E486" s="4"/>
       <c r="F486" s="4"/>
     </row>
-    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D487" s="4"/>
       <c r="E487" s="4"/>
       <c r="F487" s="4"/>
     </row>
-    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D488" s="4"/>
       <c r="E488" s="4"/>
       <c r="F488" s="4"/>
     </row>
-    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D489" s="4"/>
       <c r="E489" s="4"/>
       <c r="F489" s="4"/>
     </row>
-    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D490" s="4"/>
       <c r="E490" s="4"/>
       <c r="F490" s="4"/>
     </row>
-    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D491" s="4"/>
       <c r="E491" s="4"/>
       <c r="F491" s="4"/>
     </row>
-    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D492" s="4"/>
       <c r="E492" s="4"/>
       <c r="F492" s="4"/>
     </row>
-    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D493" s="4"/>
       <c r="E493" s="4"/>
       <c r="F493" s="4"/>
     </row>
-    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D494" s="4"/>
       <c r="E494" s="4"/>
       <c r="F494" s="4"/>
     </row>
-    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D495" s="4"/>
       <c r="E495" s="4"/>
       <c r="F495" s="4"/>
     </row>
-    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D496" s="4"/>
       <c r="E496" s="4"/>
       <c r="F496" s="4"/>
     </row>
-    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D497" s="4"/>
       <c r="E497" s="4"/>
       <c r="F497" s="4"/>
     </row>
-    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D498" s="4"/>
       <c r="E498" s="4"/>
       <c r="F498" s="4"/>
     </row>
-    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D499" s="4"/>
       <c r="E499" s="4"/>
       <c r="F499" s="4"/>
     </row>
-    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D500" s="4"/>
       <c r="E500" s="4"/>
       <c r="F500" s="4"/>
     </row>
-    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D501" s="4"/>
       <c r="E501" s="4"/>
       <c r="F501" s="4"/>
     </row>
-    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D502" s="4"/>
       <c r="E502" s="4"/>
       <c r="F502" s="4"/>
     </row>
-    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D503" s="4"/>
       <c r="E503" s="4"/>
       <c r="F503" s="4"/>
     </row>
-    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D504" s="4"/>
       <c r="E504" s="4"/>
       <c r="F504" s="4"/>
     </row>
-    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D505" s="4"/>
       <c r="E505" s="4"/>
       <c r="F505" s="4"/>
     </row>
-    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D506" s="4"/>
       <c r="E506" s="4"/>
       <c r="F506" s="4"/>
     </row>
-    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D507" s="4"/>
       <c r="E507" s="4"/>
       <c r="F507" s="4"/>
     </row>
-    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D508" s="4"/>
       <c r="E508" s="4"/>
       <c r="F508" s="4"/>
     </row>
-    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D509" s="4"/>
       <c r="E509" s="4"/>
       <c r="F509" s="4"/>
     </row>
-    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D510" s="4"/>
       <c r="E510" s="4"/>
       <c r="F510" s="4"/>
     </row>
-    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D511" s="4"/>
       <c r="E511" s="4"/>
       <c r="F511" s="4"/>
     </row>
-    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D512" s="4"/>
       <c r="E512" s="4"/>
       <c r="F512" s="4"/>
     </row>
-    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D513" s="4"/>
       <c r="E513" s="4"/>
       <c r="F513" s="4"/>
     </row>
-    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D514" s="4"/>
       <c r="E514" s="4"/>
       <c r="F514" s="4"/>
     </row>
-    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D515" s="4"/>
       <c r="E515" s="4"/>
       <c r="F515" s="4"/>
     </row>
-    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D516" s="4"/>
       <c r="E516" s="4"/>
       <c r="F516" s="4"/>
     </row>
-    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D517" s="4"/>
       <c r="E517" s="4"/>
       <c r="F517" s="4"/>
     </row>
-    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D518" s="4"/>
       <c r="E518" s="4"/>
       <c r="F518" s="4"/>
     </row>
-    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D519" s="4"/>
       <c r="E519" s="4"/>
       <c r="F519" s="4"/>
     </row>
-    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D520" s="4"/>
       <c r="E520" s="4"/>
       <c r="F520" s="4"/>
     </row>
-    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D521" s="4"/>
       <c r="E521" s="4"/>
       <c r="F521" s="4"/>
     </row>
-    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D522" s="4"/>
       <c r="E522" s="4"/>
       <c r="F522" s="4"/>
     </row>
-    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D523" s="4"/>
       <c r="E523" s="4"/>
       <c r="F523" s="4"/>
     </row>
-    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D524" s="4"/>
       <c r="E524" s="4"/>
       <c r="F524" s="4"/>
     </row>
-    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D525" s="4"/>
       <c r="E525" s="4"/>
       <c r="F525" s="4"/>
     </row>
-    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D526" s="4"/>
       <c r="E526" s="4"/>
       <c r="F526" s="4"/>
     </row>
-    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D527" s="4"/>
       <c r="E527" s="4"/>
       <c r="F527" s="4"/>
     </row>
-    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D528" s="4"/>
       <c r="E528" s="4"/>
       <c r="F528" s="4"/>
     </row>
-    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D529" s="4"/>
       <c r="E529" s="4"/>
       <c r="F529" s="4"/>
     </row>
-    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D530" s="4"/>
       <c r="E530" s="4"/>
       <c r="F530" s="4"/>
     </row>
-    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D531" s="4"/>
       <c r="E531" s="4"/>
       <c r="F531" s="4"/>
     </row>
-    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D532" s="4"/>
       <c r="E532" s="4"/>
       <c r="F532" s="4"/>
     </row>
-    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D533" s="4"/>
       <c r="E533" s="4"/>
       <c r="F533" s="4"/>
     </row>
-    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D534" s="4"/>
       <c r="E534" s="4"/>
       <c r="F534" s="4"/>
     </row>
-    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D535" s="4"/>
       <c r="E535" s="4"/>
       <c r="F535" s="4"/>
     </row>
-    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D536" s="4"/>
       <c r="E536" s="4"/>
       <c r="F536" s="4"/>
     </row>
-    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D537" s="4"/>
       <c r="E537" s="4"/>
       <c r="F537" s="4"/>
     </row>
-    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D538" s="4"/>
       <c r="E538" s="4"/>
       <c r="F538" s="4"/>
     </row>
-    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D539" s="4"/>
       <c r="E539" s="4"/>
       <c r="F539" s="4"/>
     </row>
-    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D540" s="4"/>
       <c r="E540" s="4"/>
       <c r="F540" s="4"/>
     </row>
-    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D541" s="4"/>
       <c r="E541" s="4"/>
       <c r="F541" s="4"/>
     </row>
-    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D542" s="4"/>
       <c r="E542" s="4"/>
       <c r="F542" s="4"/>
     </row>
-    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D543" s="4"/>
       <c r="E543" s="4"/>
       <c r="F543" s="4"/>
     </row>
-    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D544" s="4"/>
       <c r="E544" s="4"/>
       <c r="F544" s="4"/>
     </row>
-    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D545" s="4"/>
       <c r="E545" s="4"/>
       <c r="F545" s="4"/>
     </row>
-    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D546" s="4"/>
       <c r="E546" s="4"/>
       <c r="F546" s="4"/>
     </row>
-    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D547" s="4"/>
       <c r="E547" s="4"/>
       <c r="F547" s="4"/>
     </row>
-    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D548" s="4"/>
       <c r="E548" s="4"/>
       <c r="F548" s="4"/>
     </row>
-    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D549" s="4"/>
       <c r="E549" s="4"/>
       <c r="F549" s="4"/>
     </row>
-    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D550" s="4"/>
       <c r="E550" s="4"/>
       <c r="F550" s="4"/>
     </row>
-    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D551" s="4"/>
       <c r="E551" s="4"/>
       <c r="F551" s="4"/>
     </row>
-    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D552" s="4"/>
       <c r="E552" s="4"/>
       <c r="F552" s="4"/>
     </row>
-    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D553" s="4"/>
       <c r="E553" s="4"/>
       <c r="F553" s="4"/>
     </row>
-    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D554" s="4"/>
       <c r="E554" s="4"/>
       <c r="F554" s="4"/>
     </row>
-    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D555" s="4"/>
       <c r="E555" s="4"/>
       <c r="F555" s="4"/>
     </row>
-    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D556" s="4"/>
       <c r="E556" s="4"/>
       <c r="F556" s="4"/>
     </row>
-    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D557" s="4"/>
       <c r="E557" s="4"/>
       <c r="F557" s="4"/>
     </row>
-    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D558" s="4"/>
       <c r="E558" s="4"/>
       <c r="F558" s="4"/>
     </row>
-    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D559" s="4"/>
       <c r="E559" s="4"/>
       <c r="F559" s="4"/>
     </row>
-    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D560" s="4"/>
       <c r="E560" s="4"/>
       <c r="F560" s="4"/>
     </row>
-    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D561" s="4"/>
       <c r="E561" s="4"/>
       <c r="F561" s="4"/>
     </row>
-    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D562" s="4"/>
       <c r="E562" s="4"/>
       <c r="F562" s="4"/>
     </row>
-    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D563" s="4"/>
       <c r="E563" s="4"/>
       <c r="F563" s="4"/>
     </row>
-    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D564" s="4"/>
       <c r="E564" s="4"/>
       <c r="F564" s="4"/>
     </row>
-    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D565" s="4"/>
       <c r="E565" s="4"/>
       <c r="F565" s="4"/>
     </row>
-    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D566" s="4"/>
       <c r="E566" s="4"/>
       <c r="F566" s="4"/>
     </row>
-    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D567" s="4"/>
       <c r="E567" s="4"/>
       <c r="F567" s="4"/>
     </row>
-    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D568" s="4"/>
       <c r="E568" s="4"/>
       <c r="F568" s="4"/>
     </row>
-    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D569" s="4"/>
       <c r="E569" s="4"/>
       <c r="F569" s="4"/>
     </row>
-    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D570" s="4"/>
       <c r="E570" s="4"/>
       <c r="F570" s="4"/>
     </row>
-    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D571" s="4"/>
       <c r="E571" s="4"/>
       <c r="F571" s="4"/>
     </row>
-    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D572" s="4"/>
       <c r="E572" s="4"/>
       <c r="F572" s="4"/>
     </row>
-    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D573" s="4"/>
       <c r="E573" s="4"/>
       <c r="F573" s="4"/>
     </row>
-    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D574" s="4"/>
       <c r="E574" s="4"/>
       <c r="F574" s="4"/>
     </row>
-    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D575" s="4"/>
       <c r="E575" s="4"/>
       <c r="F575" s="4"/>
     </row>
-    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D576" s="4"/>
       <c r="E576" s="4"/>
       <c r="F576" s="4"/>
     </row>
-    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D577" s="4"/>
       <c r="E577" s="4"/>
       <c r="F577" s="4"/>
     </row>
-    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D578" s="4"/>
       <c r="E578" s="4"/>
       <c r="F578" s="4"/>
     </row>
-    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D579" s="4"/>
       <c r="E579" s="4"/>
       <c r="F579" s="4"/>
     </row>
-    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D580" s="4"/>
       <c r="E580" s="4"/>
       <c r="F580" s="4"/>
     </row>
-    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D581" s="4"/>
       <c r="E581" s="4"/>
       <c r="F581" s="4"/>
     </row>
-    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D582" s="4"/>
       <c r="E582" s="4"/>
       <c r="F582" s="4"/>
     </row>
-    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D583" s="4"/>
       <c r="E583" s="4"/>
       <c r="F583" s="4"/>
     </row>
-    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D584" s="4"/>
       <c r="E584" s="4"/>
       <c r="F584" s="4"/>
     </row>
-    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D585" s="4"/>
       <c r="E585" s="4"/>
       <c r="F585" s="4"/>
     </row>
-    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D586" s="4"/>
       <c r="E586" s="4"/>
       <c r="F586" s="4"/>
     </row>
-    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D587" s="4"/>
       <c r="E587" s="4"/>
       <c r="F587" s="4"/>
     </row>
-    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D588" s="4"/>
       <c r="E588" s="4"/>
       <c r="F588" s="4"/>
     </row>
-    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D589" s="4"/>
       <c r="E589" s="4"/>
       <c r="F589" s="4"/>
     </row>
-    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D590" s="4"/>
       <c r="E590" s="4"/>
       <c r="F590" s="4"/>
     </row>
-    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D591" s="4"/>
       <c r="E591" s="4"/>
       <c r="F591" s="4"/>
     </row>
-    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D592" s="4"/>
       <c r="E592" s="4"/>
       <c r="F592" s="4"/>
     </row>
-    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D593" s="4"/>
       <c r="E593" s="4"/>
       <c r="F593" s="4"/>
     </row>
-    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D594" s="4"/>
       <c r="E594" s="4"/>
       <c r="F594" s="4"/>
     </row>
-    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D595" s="4"/>
       <c r="E595" s="4"/>
       <c r="F595" s="4"/>
     </row>
-    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D596" s="4"/>
       <c r="E596" s="4"/>
       <c r="F596" s="4"/>
     </row>
-    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D597" s="4"/>
       <c r="E597" s="4"/>
       <c r="F597" s="4"/>
     </row>
-    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D598" s="4"/>
       <c r="E598" s="4"/>
       <c r="F598" s="4"/>
     </row>
-    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D599" s="4"/>
       <c r="E599" s="4"/>
       <c r="F599" s="4"/>
     </row>
-    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D600" s="4"/>
       <c r="E600" s="4"/>
       <c r="F600" s="4"/>
     </row>
-    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D601" s="4"/>
       <c r="E601" s="4"/>
       <c r="F601" s="4"/>
     </row>
-    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D602" s="4"/>
       <c r="E602" s="4"/>
       <c r="F602" s="4"/>
     </row>
-    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D603" s="4"/>
       <c r="E603" s="4"/>
       <c r="F603" s="4"/>
     </row>
-    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D604" s="4"/>
       <c r="E604" s="4"/>
       <c r="F604" s="4"/>
     </row>
-    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D605" s="4"/>
       <c r="E605" s="4"/>
       <c r="F605" s="4"/>
     </row>
-    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D606" s="4"/>
       <c r="E606" s="4"/>
       <c r="F606" s="4"/>
     </row>
-    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D607" s="4"/>
       <c r="E607" s="4"/>
       <c r="F607" s="4"/>
     </row>
-    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D608" s="4"/>
       <c r="E608" s="4"/>
       <c r="F608" s="4"/>
     </row>
-    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D609" s="4"/>
       <c r="E609" s="4"/>
       <c r="F609" s="4"/>
     </row>
-    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D610" s="4"/>
       <c r="E610" s="4"/>
       <c r="F610" s="4"/>
     </row>
-    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D611" s="4"/>
       <c r="E611" s="4"/>
       <c r="F611" s="4"/>
     </row>
-    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D612" s="4"/>
       <c r="E612" s="4"/>
       <c r="F612" s="4"/>
     </row>
-    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D613" s="4"/>
       <c r="E613" s="4"/>
       <c r="F613" s="4"/>
     </row>
-    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D614" s="4"/>
       <c r="E614" s="4"/>
       <c r="F614" s="4"/>
     </row>
-    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D615" s="4"/>
       <c r="E615" s="4"/>
       <c r="F615" s="4"/>
     </row>
-    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D616" s="4"/>
       <c r="E616" s="4"/>
       <c r="F616" s="4"/>
     </row>
-    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D617" s="4"/>
       <c r="E617" s="4"/>
       <c r="F617" s="4"/>
     </row>
-    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D618" s="4"/>
       <c r="E618" s="4"/>
       <c r="F618" s="4"/>
     </row>
-    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D619" s="4"/>
       <c r="E619" s="4"/>
       <c r="F619" s="4"/>
     </row>
-    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D620" s="4"/>
       <c r="E620" s="4"/>
       <c r="F620" s="4"/>
     </row>
-    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D621" s="4"/>
       <c r="E621" s="4"/>
       <c r="F621" s="4"/>
     </row>
-    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D622" s="4"/>
       <c r="E622" s="4"/>
       <c r="F622" s="4"/>
     </row>
-    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D623" s="4"/>
       <c r="E623" s="4"/>
       <c r="F623" s="4"/>
     </row>
-    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D624" s="4"/>
       <c r="E624" s="4"/>
       <c r="F624" s="4"/>
     </row>
-    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D625" s="4"/>
       <c r="E625" s="4"/>
       <c r="F625" s="4"/>
     </row>
-    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D626" s="4"/>
       <c r="E626" s="4"/>
       <c r="F626" s="4"/>
     </row>
-    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D627" s="4"/>
       <c r="E627" s="4"/>
       <c r="F627" s="4"/>
     </row>
-    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D628" s="4"/>
       <c r="E628" s="4"/>
       <c r="F628" s="4"/>
     </row>
-    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D629" s="4"/>
       <c r="E629" s="4"/>
       <c r="F629" s="4"/>
     </row>
-    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D630" s="4"/>
       <c r="E630" s="4"/>
       <c r="F630" s="4"/>
     </row>
-    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D631" s="4"/>
       <c r="E631" s="4"/>
       <c r="F631" s="4"/>
     </row>
-    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D632" s="4"/>
       <c r="E632" s="4"/>
       <c r="F632" s="4"/>
     </row>
-    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D633" s="4"/>
       <c r="E633" s="4"/>
       <c r="F633" s="4"/>
     </row>
-    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D634" s="4"/>
       <c r="E634" s="4"/>
       <c r="F634" s="4"/>
     </row>
-    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D635" s="4"/>
       <c r="E635" s="4"/>
       <c r="F635" s="4"/>
     </row>
-    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D636" s="4"/>
       <c r="E636" s="4"/>
       <c r="F636" s="4"/>
     </row>
-    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D637" s="4"/>
       <c r="E637" s="4"/>
       <c r="F637" s="4"/>
     </row>
-    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D638" s="4"/>
       <c r="E638" s="4"/>
       <c r="F638" s="4"/>
     </row>
-    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D639" s="4"/>
       <c r="E639" s="4"/>
       <c r="F639" s="4"/>
     </row>
-    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D640" s="4"/>
       <c r="E640" s="4"/>
       <c r="F640" s="4"/>
     </row>
-    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D641" s="4"/>
       <c r="E641" s="4"/>
       <c r="F641" s="4"/>
     </row>
-    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D642" s="4"/>
       <c r="E642" s="4"/>
       <c r="F642" s="4"/>
     </row>
-    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D643" s="4"/>
       <c r="E643" s="4"/>
       <c r="F643" s="4"/>
     </row>
-    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D644" s="4"/>
       <c r="E644" s="4"/>
       <c r="F644" s="4"/>
     </row>
-    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D645" s="4"/>
       <c r="E645" s="4"/>
       <c r="F645" s="4"/>
     </row>
-    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D646" s="4"/>
       <c r="E646" s="4"/>
       <c r="F646" s="4"/>
     </row>
-    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D647" s="4"/>
       <c r="E647" s="4"/>
       <c r="F647" s="4"/>
     </row>
-    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D648" s="4"/>
       <c r="E648" s="4"/>
       <c r="F648" s="4"/>
     </row>
-    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D649" s="4"/>
       <c r="E649" s="4"/>
       <c r="F649" s="4"/>
     </row>
-    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D650" s="4"/>
       <c r="E650" s="4"/>
       <c r="F650" s="4"/>
     </row>
-    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D651" s="4"/>
       <c r="E651" s="4"/>
       <c r="F651" s="4"/>
     </row>
-    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D652" s="4"/>
       <c r="E652" s="4"/>
       <c r="F652" s="4"/>
     </row>
-    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D653" s="4"/>
       <c r="E653" s="4"/>
       <c r="F653" s="4"/>
     </row>
-    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D654" s="4"/>
       <c r="E654" s="4"/>
       <c r="F654" s="4"/>
     </row>
-    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D655" s="4"/>
       <c r="E655" s="4"/>
       <c r="F655" s="4"/>
     </row>
-    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D656" s="4"/>
       <c r="E656" s="4"/>
       <c r="F656" s="4"/>
     </row>
-    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D657" s="4"/>
       <c r="E657" s="4"/>
       <c r="F657" s="4"/>
     </row>
-    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D658" s="4"/>
       <c r="E658" s="4"/>
       <c r="F658" s="4"/>
     </row>
-    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D659" s="4"/>
       <c r="E659" s="4"/>
       <c r="F659" s="4"/>
     </row>
-    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D660" s="4"/>
       <c r="E660" s="4"/>
       <c r="F660" s="4"/>
     </row>
-    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D661" s="4"/>
       <c r="E661" s="4"/>
       <c r="F661" s="4"/>
     </row>
-    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D662" s="4"/>
       <c r="E662" s="4"/>
       <c r="F662" s="4"/>
     </row>
-    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D663" s="4"/>
       <c r="E663" s="4"/>
       <c r="F663" s="4"/>
     </row>
-    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D664" s="4"/>
       <c r="E664" s="4"/>
       <c r="F664" s="4"/>
     </row>
-    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D665" s="4"/>
       <c r="E665" s="4"/>
       <c r="F665" s="4"/>
     </row>
-    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D666" s="4"/>
       <c r="E666" s="4"/>
       <c r="F666" s="4"/>
     </row>
-    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="667" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D667" s="4"/>
       <c r="E667" s="4"/>
       <c r="F667" s="4"/>
     </row>
-    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D668" s="4"/>
       <c r="E668" s="4"/>
       <c r="F668" s="4"/>
     </row>
-    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D669" s="4"/>
       <c r="E669" s="4"/>
       <c r="F669" s="4"/>
     </row>
-    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="670" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D670" s="4"/>
       <c r="E670" s="4"/>
       <c r="F670" s="4"/>
     </row>
-    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D671" s="4"/>
       <c r="E671" s="4"/>
       <c r="F671" s="4"/>
     </row>
-    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D672" s="4"/>
       <c r="E672" s="4"/>
       <c r="F672" s="4"/>
     </row>
-    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="673" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D673" s="4"/>
       <c r="E673" s="4"/>
       <c r="F673" s="4"/>
     </row>
-    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D674" s="4"/>
       <c r="E674" s="4"/>
       <c r="F674" s="4"/>
     </row>
-    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="675" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D675" s="4"/>
       <c r="E675" s="4"/>
       <c r="F675" s="4"/>
     </row>
-    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D676" s="4"/>
       <c r="E676" s="4"/>
       <c r="F676" s="4"/>
     </row>
-    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="677" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D677" s="4"/>
       <c r="E677" s="4"/>
       <c r="F677" s="4"/>
     </row>
-    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D678" s="4"/>
       <c r="E678" s="4"/>
       <c r="F678" s="4"/>
     </row>
-    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D679" s="4"/>
       <c r="E679" s="4"/>
       <c r="F679" s="4"/>
     </row>
-    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D680" s="4"/>
       <c r="E680" s="4"/>
       <c r="F680" s="4"/>
     </row>
-    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D681" s="4"/>
       <c r="E681" s="4"/>
       <c r="F681" s="4"/>
     </row>
-    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D682" s="4"/>
       <c r="E682" s="4"/>
       <c r="F682" s="4"/>
     </row>
-    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D683" s="4"/>
       <c r="E683" s="4"/>
       <c r="F683" s="4"/>
     </row>
-    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D684" s="4"/>
       <c r="E684" s="4"/>
       <c r="F684" s="4"/>
     </row>
-    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D685" s="4"/>
       <c r="E685" s="4"/>
       <c r="F685" s="4"/>
     </row>
-    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="686" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D686" s="4"/>
       <c r="E686" s="4"/>
       <c r="F686" s="4"/>
     </row>
-    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D687" s="4"/>
       <c r="E687" s="4"/>
       <c r="F687" s="4"/>
     </row>
-    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="688" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D688" s="4"/>
       <c r="E688" s="4"/>
       <c r="F688" s="4"/>
     </row>
-    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="689" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D689" s="4"/>
       <c r="E689" s="4"/>
       <c r="F689" s="4"/>
     </row>
-    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D690" s="4"/>
       <c r="E690" s="4"/>
       <c r="F690" s="4"/>
     </row>
-    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D691" s="4"/>
       <c r="E691" s="4"/>
       <c r="F691" s="4"/>
     </row>
-    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="692" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D692" s="4"/>
       <c r="E692" s="4"/>
       <c r="F692" s="4"/>
     </row>
-    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="693" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D693" s="4"/>
       <c r="E693" s="4"/>
       <c r="F693" s="4"/>
     </row>
-    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="694" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D694" s="4"/>
       <c r="E694" s="4"/>
       <c r="F694" s="4"/>
     </row>
-    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="695" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D695" s="4"/>
       <c r="E695" s="4"/>
       <c r="F695" s="4"/>
     </row>
-    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="696" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D696" s="4"/>
       <c r="E696" s="4"/>
       <c r="F696" s="4"/>
     </row>
-    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="697" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D697" s="4"/>
       <c r="E697" s="4"/>
       <c r="F697" s="4"/>
     </row>
-    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="698" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D698" s="4"/>
       <c r="E698" s="4"/>
       <c r="F698" s="4"/>
     </row>
-    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="699" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D699" s="4"/>
       <c r="E699" s="4"/>
       <c r="F699" s="4"/>
     </row>
-    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="700" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D700" s="4"/>
       <c r="E700" s="4"/>
       <c r="F700" s="4"/>
     </row>
-    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="701" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D701" s="4"/>
       <c r="E701" s="4"/>
       <c r="F701" s="4"/>
     </row>
-    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="702" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D702" s="4"/>
       <c r="E702" s="4"/>
       <c r="F702" s="4"/>
     </row>
-    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="703" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D703" s="4"/>
       <c r="E703" s="4"/>
       <c r="F703" s="4"/>
     </row>
-    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="704" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D704" s="4"/>
       <c r="E704" s="4"/>
       <c r="F704" s="4"/>
     </row>
-    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="705" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D705" s="4"/>
       <c r="E705" s="4"/>
       <c r="F705" s="4"/>
     </row>
-    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="706" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D706" s="4"/>
       <c r="E706" s="4"/>
       <c r="F706" s="4"/>
     </row>
-    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="707" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D707" s="4"/>
       <c r="E707" s="4"/>
       <c r="F707" s="4"/>
     </row>
-    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="708" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D708" s="4"/>
       <c r="E708" s="4"/>
       <c r="F708" s="4"/>
     </row>
-    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="709" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D709" s="4"/>
       <c r="E709" s="4"/>
       <c r="F709" s="4"/>
     </row>
-    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="710" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D710" s="4"/>
       <c r="E710" s="4"/>
       <c r="F710" s="4"/>
     </row>
-    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="711" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D711" s="4"/>
       <c r="E711" s="4"/>
       <c r="F711" s="4"/>
     </row>
-    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="712" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D712" s="4"/>
       <c r="E712" s="4"/>
       <c r="F712" s="4"/>
     </row>
-    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="713" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D713" s="4"/>
       <c r="E713" s="4"/>
       <c r="F713" s="4"/>
     </row>
-    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="714" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D714" s="4"/>
       <c r="E714" s="4"/>
       <c r="F714" s="4"/>
     </row>
-    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="715" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D715" s="4"/>
       <c r="E715" s="4"/>
       <c r="F715" s="4"/>
     </row>
-    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D716" s="4"/>
       <c r="E716" s="4"/>
       <c r="F716" s="4"/>
     </row>
-    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="717" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D717" s="4"/>
       <c r="E717" s="4"/>
       <c r="F717" s="4"/>
     </row>
-    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="718" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D718" s="4"/>
       <c r="E718" s="4"/>
       <c r="F718" s="4"/>
     </row>
-    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="719" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D719" s="4"/>
       <c r="E719" s="4"/>
       <c r="F719" s="4"/>
     </row>
-    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="720" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D720" s="4"/>
       <c r="E720" s="4"/>
       <c r="F720" s="4"/>
     </row>
-    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D721" s="4"/>
       <c r="E721" s="4"/>
       <c r="F721" s="4"/>
     </row>
-    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="722" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D722" s="4"/>
       <c r="E722" s="4"/>
       <c r="F722" s="4"/>
     </row>
-    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="723" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D723" s="4"/>
       <c r="E723" s="4"/>
       <c r="F723" s="4"/>
     </row>
-    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="724" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D724" s="4"/>
       <c r="E724" s="4"/>
       <c r="F724" s="4"/>
     </row>
-    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="725" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D725" s="4"/>
       <c r="E725" s="4"/>
       <c r="F725" s="4"/>
     </row>
-    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="726" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D726" s="4"/>
       <c r="E726" s="4"/>
       <c r="F726" s="4"/>
     </row>
-    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="727" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D727" s="4"/>
       <c r="E727" s="4"/>
       <c r="F727" s="4"/>
     </row>
-    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="728" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D728" s="4"/>
       <c r="E728" s="4"/>
       <c r="F728" s="4"/>
     </row>
-    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="729" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D729" s="4"/>
       <c r="E729" s="4"/>
       <c r="F729" s="4"/>
     </row>
-    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="730" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D730" s="4"/>
       <c r="E730" s="4"/>
       <c r="F730" s="4"/>
     </row>
-    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="731" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D731" s="4"/>
       <c r="E731" s="4"/>
       <c r="F731" s="4"/>
     </row>
-    <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="732" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D732" s="4"/>
       <c r="E732" s="4"/>
       <c r="F732" s="4"/>
     </row>
-    <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="733" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D733" s="4"/>
       <c r="E733" s="4"/>
       <c r="F733" s="4"/>
     </row>
-    <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="734" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D734" s="4"/>
       <c r="E734" s="4"/>
       <c r="F734" s="4"/>
     </row>
-    <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="735" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D735" s="4"/>
       <c r="E735" s="4"/>
       <c r="F735" s="4"/>
     </row>
-    <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="736" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D736" s="4"/>
       <c r="E736" s="4"/>
       <c r="F736" s="4"/>
     </row>
-    <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="737" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D737" s="4"/>
       <c r="E737" s="4"/>
       <c r="F737" s="4"/>
     </row>
-    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="738" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D738" s="4"/>
       <c r="E738" s="4"/>
       <c r="F738" s="4"/>
     </row>
-    <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="739" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D739" s="4"/>
       <c r="E739" s="4"/>
       <c r="F739" s="4"/>
     </row>
-    <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="740" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D740" s="4"/>
       <c r="E740" s="4"/>
       <c r="F740" s="4"/>
     </row>
-    <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="741" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D741" s="4"/>
       <c r="E741" s="4"/>
       <c r="F741" s="4"/>
     </row>
-    <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="742" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D742" s="4"/>
       <c r="E742" s="4"/>
       <c r="F742" s="4"/>
     </row>
-    <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="743" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D743" s="4"/>
       <c r="E743" s="4"/>
       <c r="F743" s="4"/>
     </row>
-    <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="744" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D744" s="4"/>
       <c r="E744" s="4"/>
       <c r="F744" s="4"/>
     </row>
-    <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="745" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D745" s="4"/>
       <c r="E745" s="4"/>
       <c r="F745" s="4"/>
     </row>
-    <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="746" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D746" s="4"/>
       <c r="E746" s="4"/>
       <c r="F746" s="4"/>
     </row>
-    <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="747" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D747" s="4"/>
       <c r="E747" s="4"/>
       <c r="F747" s="4"/>
     </row>
-    <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D748" s="4"/>
       <c r="E748" s="4"/>
       <c r="F748" s="4"/>
     </row>
-    <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="749" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D749" s="4"/>
       <c r="E749" s="4"/>
       <c r="F749" s="4"/>
     </row>
-    <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="750" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D750" s="4"/>
       <c r="E750" s="4"/>
       <c r="F750" s="4"/>
     </row>
-    <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="751" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D751" s="4"/>
       <c r="E751" s="4"/>
       <c r="F751" s="4"/>
     </row>
-    <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="752" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D752" s="4"/>
       <c r="E752" s="4"/>
       <c r="F752" s="4"/>
     </row>
-    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="753" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D753" s="4"/>
       <c r="E753" s="4"/>
       <c r="F753" s="4"/>
     </row>
-    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="754" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D754" s="4"/>
       <c r="E754" s="4"/>
       <c r="F754" s="4"/>
     </row>
-    <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="755" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D755" s="4"/>
       <c r="E755" s="4"/>
       <c r="F755" s="4"/>
     </row>
-    <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="756" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D756" s="4"/>
       <c r="E756" s="4"/>
       <c r="F756" s="4"/>
     </row>
-    <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="757" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D757" s="4"/>
       <c r="E757" s="4"/>
       <c r="F757" s="4"/>
     </row>
-    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="758" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D758" s="4"/>
       <c r="E758" s="4"/>
       <c r="F758" s="4"/>
     </row>
-    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="759" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D759" s="4"/>
       <c r="E759" s="4"/>
       <c r="F759" s="4"/>
     </row>
-    <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="760" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D760" s="4"/>
       <c r="E760" s="4"/>
       <c r="F760" s="4"/>
     </row>
-    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="761" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D761" s="4"/>
       <c r="E761" s="4"/>
       <c r="F761" s="4"/>
     </row>
-    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="762" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D762" s="4"/>
       <c r="E762" s="4"/>
       <c r="F762" s="4"/>
     </row>
-    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="763" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D763" s="4"/>
       <c r="E763" s="4"/>
       <c r="F763" s="4"/>
     </row>
-    <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="764" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D764" s="4"/>
       <c r="E764" s="4"/>
       <c r="F764" s="4"/>
     </row>
-    <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="765" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D765" s="4"/>
       <c r="E765" s="4"/>
       <c r="F765" s="4"/>
     </row>
-    <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="766" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D766" s="4"/>
       <c r="E766" s="4"/>
       <c r="F766" s="4"/>
     </row>
-    <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="767" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D767" s="4"/>
       <c r="E767" s="4"/>
       <c r="F767" s="4"/>
     </row>
-    <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="768" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D768" s="4"/>
       <c r="E768" s="4"/>
       <c r="F768" s="4"/>
     </row>
-    <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="769" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D769" s="4"/>
       <c r="E769" s="4"/>
       <c r="F769" s="4"/>
     </row>
-    <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="770" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D770" s="4"/>
       <c r="E770" s="4"/>
       <c r="F770" s="4"/>
     </row>
-    <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="771" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D771" s="4"/>
       <c r="E771" s="4"/>
       <c r="F771" s="4"/>
     </row>
-    <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="772" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D772" s="4"/>
       <c r="E772" s="4"/>
       <c r="F772" s="4"/>
     </row>
-    <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="773" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D773" s="4"/>
       <c r="E773" s="4"/>
       <c r="F773" s="4"/>
     </row>
-    <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="774" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D774" s="4"/>
       <c r="E774" s="4"/>
       <c r="F774" s="4"/>
     </row>
-    <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="775" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D775" s="4"/>
       <c r="E775" s="4"/>
       <c r="F775" s="4"/>
     </row>
-    <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="776" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D776" s="4"/>
       <c r="E776" s="4"/>
       <c r="F776" s="4"/>
     </row>
-    <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="777" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D777" s="4"/>
       <c r="E777" s="4"/>
       <c r="F777" s="4"/>
     </row>
-    <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="778" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D778" s="4"/>
       <c r="E778" s="4"/>
       <c r="F778" s="4"/>
     </row>
-    <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="779" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D779" s="4"/>
       <c r="E779" s="4"/>
       <c r="F779" s="4"/>
     </row>
-    <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="780" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D780" s="4"/>
       <c r="E780" s="4"/>
       <c r="F780" s="4"/>
     </row>
-    <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="781" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D781" s="4"/>
       <c r="E781" s="4"/>
       <c r="F781" s="4"/>
     </row>
-    <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="782" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D782" s="4"/>
       <c r="E782" s="4"/>
       <c r="F782" s="4"/>
     </row>
-    <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="783" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D783" s="4"/>
       <c r="E783" s="4"/>
       <c r="F783" s="4"/>
     </row>
-    <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="784" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D784" s="4"/>
       <c r="E784" s="4"/>
       <c r="F784" s="4"/>
     </row>
-    <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="785" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D785" s="4"/>
       <c r="E785" s="4"/>
       <c r="F785" s="4"/>
     </row>
-    <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="786" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D786" s="4"/>
       <c r="E786" s="4"/>
       <c r="F786" s="4"/>
     </row>
-    <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="787" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D787" s="4"/>
       <c r="E787" s="4"/>
       <c r="F787" s="4"/>
     </row>
-    <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="788" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D788" s="4"/>
       <c r="E788" s="4"/>
       <c r="F788" s="4"/>
     </row>
-    <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="789" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D789" s="4"/>
       <c r="E789" s="4"/>
       <c r="F789" s="4"/>
     </row>
-    <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="790" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D790" s="4"/>
       <c r="E790" s="4"/>
       <c r="F790" s="4"/>
     </row>
-    <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="791" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D791" s="4"/>
       <c r="E791" s="4"/>
       <c r="F791" s="4"/>
     </row>
-    <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="792" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D792" s="4"/>
       <c r="E792" s="4"/>
       <c r="F792" s="4"/>
     </row>
-    <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="793" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D793" s="4"/>
       <c r="E793" s="4"/>
       <c r="F793" s="4"/>
     </row>
-    <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="794" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D794" s="4"/>
       <c r="E794" s="4"/>
       <c r="F794" s="4"/>
     </row>
-    <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="795" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D795" s="4"/>
       <c r="E795" s="4"/>
       <c r="F795" s="4"/>
     </row>
-    <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="796" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D796" s="4"/>
       <c r="E796" s="4"/>
       <c r="F796" s="4"/>
     </row>
-    <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="797" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D797" s="4"/>
       <c r="E797" s="4"/>
       <c r="F797" s="4"/>
     </row>
-    <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="798" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D798" s="4"/>
       <c r="E798" s="4"/>
       <c r="F798" s="4"/>
     </row>
-    <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="799" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D799" s="4"/>
       <c r="E799" s="4"/>
       <c r="F799" s="4"/>
     </row>
-    <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="800" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D800" s="4"/>
       <c r="E800" s="4"/>
       <c r="F800" s="4"/>
     </row>
-    <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="801" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D801" s="4"/>
       <c r="E801" s="4"/>
       <c r="F801" s="4"/>
     </row>
-    <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="802" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D802" s="4"/>
       <c r="E802" s="4"/>
       <c r="F802" s="4"/>
     </row>
-    <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="803" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D803" s="4"/>
       <c r="E803" s="4"/>
       <c r="F803" s="4"/>
     </row>
-    <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="804" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D804" s="4"/>
       <c r="E804" s="4"/>
       <c r="F804" s="4"/>
     </row>
-    <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="805" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D805" s="4"/>
       <c r="E805" s="4"/>
       <c r="F805" s="4"/>
     </row>
-    <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="806" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D806" s="4"/>
       <c r="E806" s="4"/>
       <c r="F806" s="4"/>
     </row>
-    <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="807" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D807" s="4"/>
       <c r="E807" s="4"/>
       <c r="F807" s="4"/>
     </row>
-    <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="808" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D808" s="4"/>
       <c r="E808" s="4"/>
       <c r="F808" s="4"/>
     </row>
-    <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="809" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D809" s="4"/>
       <c r="E809" s="4"/>
       <c r="F809" s="4"/>
     </row>
-    <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="810" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D810" s="4"/>
       <c r="E810" s="4"/>
       <c r="F810" s="4"/>
     </row>
-    <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="811" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D811" s="4"/>
       <c r="E811" s="4"/>
       <c r="F811" s="4"/>
     </row>
-    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="812" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D812" s="4"/>
       <c r="E812" s="4"/>
       <c r="F812" s="4"/>
     </row>
-    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="813" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D813" s="4"/>
       <c r="E813" s="4"/>
       <c r="F813" s="4"/>
     </row>
-    <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="814" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D814" s="4"/>
       <c r="E814" s="4"/>
       <c r="F814" s="4"/>
     </row>
-    <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="815" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D815" s="4"/>
       <c r="E815" s="4"/>
       <c r="F815" s="4"/>
     </row>
-    <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="816" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D816" s="4"/>
       <c r="E816" s="4"/>
       <c r="F816" s="4"/>
     </row>
-    <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="817" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D817" s="4"/>
       <c r="E817" s="4"/>
       <c r="F817" s="4"/>
     </row>
-    <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="818" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D818" s="4"/>
       <c r="E818" s="4"/>
       <c r="F818" s="4"/>
     </row>
-    <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="819" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D819" s="4"/>
       <c r="E819" s="4"/>
       <c r="F819" s="4"/>
     </row>
-    <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="820" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D820" s="4"/>
       <c r="E820" s="4"/>
       <c r="F820" s="4"/>
     </row>
-    <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="821" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D821" s="4"/>
       <c r="E821" s="4"/>
       <c r="F821" s="4"/>
     </row>
-    <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="822" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D822" s="4"/>
       <c r="E822" s="4"/>
       <c r="F822" s="4"/>
     </row>
-    <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="823" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D823" s="4"/>
       <c r="E823" s="4"/>
       <c r="F823" s="4"/>
     </row>
-    <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="824" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D824" s="4"/>
       <c r="E824" s="4"/>
       <c r="F824" s="4"/>
     </row>
-    <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="825" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D825" s="4"/>
       <c r="E825" s="4"/>
       <c r="F825" s="4"/>
     </row>
-    <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="826" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D826" s="4"/>
       <c r="E826" s="4"/>
       <c r="F826" s="4"/>
     </row>
-    <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="827" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D827" s="4"/>
       <c r="E827" s="4"/>
       <c r="F827" s="4"/>
     </row>
-    <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="828" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D828" s="4"/>
       <c r="E828" s="4"/>
       <c r="F828" s="4"/>
     </row>
-    <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="829" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D829" s="4"/>
       <c r="E829" s="4"/>
       <c r="F829" s="4"/>
     </row>
-    <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="830" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D830" s="4"/>
       <c r="E830" s="4"/>
       <c r="F830" s="4"/>
     </row>
-    <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="831" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D831" s="4"/>
       <c r="E831" s="4"/>
       <c r="F831" s="4"/>
     </row>
-    <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="832" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D832" s="4"/>
       <c r="E832" s="4"/>
       <c r="F832" s="4"/>
     </row>
-    <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="833" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D833" s="4"/>
       <c r="E833" s="4"/>
       <c r="F833" s="4"/>
     </row>
-    <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="834" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D834" s="4"/>
       <c r="E834" s="4"/>
       <c r="F834" s="4"/>
     </row>
-    <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="835" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D835" s="4"/>
       <c r="E835" s="4"/>
       <c r="F835" s="4"/>
     </row>
-    <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="836" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D836" s="4"/>
       <c r="E836" s="4"/>
       <c r="F836" s="4"/>
     </row>
-    <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="837" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D837" s="4"/>
       <c r="E837" s="4"/>
       <c r="F837" s="4"/>
     </row>
-    <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="838" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D838" s="4"/>
       <c r="E838" s="4"/>
       <c r="F838" s="4"/>
     </row>
-    <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="839" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D839" s="4"/>
       <c r="E839" s="4"/>
       <c r="F839" s="4"/>
     </row>
-    <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="840" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D840" s="4"/>
       <c r="E840" s="4"/>
       <c r="F840" s="4"/>
     </row>
-    <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="841" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D841" s="4"/>
       <c r="E841" s="4"/>
       <c r="F841" s="4"/>
     </row>
-    <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="842" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D842" s="4"/>
       <c r="E842" s="4"/>
       <c r="F842" s="4"/>
     </row>
-    <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="843" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D843" s="4"/>
       <c r="E843" s="4"/>
       <c r="F843" s="4"/>
     </row>
-    <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="844" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D844" s="4"/>
       <c r="E844" s="4"/>
       <c r="F844" s="4"/>
     </row>
-    <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="845" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D845" s="4"/>
       <c r="E845" s="4"/>
       <c r="F845" s="4"/>
     </row>
-    <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="846" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D846" s="4"/>
       <c r="E846" s="4"/>
       <c r="F846" s="4"/>
     </row>
-    <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="847" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D847" s="4"/>
       <c r="E847" s="4"/>
       <c r="F847" s="4"/>
     </row>
-    <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="848" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D848" s="4"/>
       <c r="E848" s="4"/>
       <c r="F848" s="4"/>
     </row>
-    <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="849" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D849" s="4"/>
       <c r="E849" s="4"/>
       <c r="F849" s="4"/>
     </row>
-    <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="850" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D850" s="4"/>
       <c r="E850" s="4"/>
       <c r="F850" s="4"/>
     </row>
-    <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="851" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D851" s="4"/>
       <c r="E851" s="4"/>
       <c r="F851" s="4"/>
     </row>
-    <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="852" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D852" s="4"/>
       <c r="E852" s="4"/>
       <c r="F852" s="4"/>
     </row>
-    <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="853" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D853" s="4"/>
       <c r="E853" s="4"/>
       <c r="F853" s="4"/>
     </row>
-    <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="854" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D854" s="4"/>
       <c r="E854" s="4"/>
       <c r="F854" s="4"/>
     </row>
-    <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="855" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D855" s="4"/>
       <c r="E855" s="4"/>
       <c r="F855" s="4"/>
     </row>
-    <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="856" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D856" s="4"/>
       <c r="E856" s="4"/>
       <c r="F856" s="4"/>
     </row>
-    <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="857" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D857" s="4"/>
       <c r="E857" s="4"/>
       <c r="F857" s="4"/>
     </row>
-    <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="858" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D858" s="4"/>
       <c r="E858" s="4"/>
       <c r="F858" s="4"/>
     </row>
-    <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="859" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D859" s="4"/>
       <c r="E859" s="4"/>
       <c r="F859" s="4"/>
     </row>
-    <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="860" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D860" s="4"/>
       <c r="E860" s="4"/>
       <c r="F860" s="4"/>
     </row>
-    <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="861" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D861" s="4"/>
       <c r="E861" s="4"/>
       <c r="F861" s="4"/>
     </row>
-    <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="862" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D862" s="4"/>
       <c r="E862" s="4"/>
       <c r="F862" s="4"/>
     </row>
-    <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="863" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D863" s="4"/>
       <c r="E863" s="4"/>
       <c r="F863" s="4"/>
     </row>
-    <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="864" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D864" s="4"/>
       <c r="E864" s="4"/>
       <c r="F864" s="4"/>
     </row>
-    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="865" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D865" s="4"/>
       <c r="E865" s="4"/>
       <c r="F865" s="4"/>
     </row>
-    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="866" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D866" s="4"/>
       <c r="E866" s="4"/>
       <c r="F866" s="4"/>
     </row>
-    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="867" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D867" s="4"/>
       <c r="E867" s="4"/>
       <c r="F867" s="4"/>
     </row>
-    <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="868" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D868" s="4"/>
       <c r="E868" s="4"/>
       <c r="F868" s="4"/>
     </row>
-    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="869" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D869" s="4"/>
       <c r="E869" s="4"/>
       <c r="F869" s="4"/>
     </row>
-    <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="870" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D870" s="4"/>
       <c r="E870" s="4"/>
       <c r="F870" s="4"/>
     </row>
-    <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="871" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D871" s="4"/>
       <c r="E871" s="4"/>
       <c r="F871" s="4"/>
     </row>
-    <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="872" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D872" s="4"/>
       <c r="E872" s="4"/>
       <c r="F872" s="4"/>
     </row>
-    <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="873" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D873" s="4"/>
       <c r="E873" s="4"/>
       <c r="F873" s="4"/>
     </row>
-    <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="874" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D874" s="4"/>
       <c r="E874" s="4"/>
       <c r="F874" s="4"/>
     </row>
-    <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="875" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D875" s="4"/>
       <c r="E875" s="4"/>
       <c r="F875" s="4"/>
     </row>
-    <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="876" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D876" s="4"/>
       <c r="E876" s="4"/>
       <c r="F876" s="4"/>
     </row>
-    <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="877" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D877" s="4"/>
       <c r="E877" s="4"/>
       <c r="F877" s="4"/>
     </row>
-    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="878" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D878" s="4"/>
       <c r="E878" s="4"/>
       <c r="F878" s="4"/>
     </row>
-    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="879" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D879" s="4"/>
       <c r="E879" s="4"/>
       <c r="F879" s="4"/>
     </row>
-    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="880" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D880" s="4"/>
       <c r="E880" s="4"/>
       <c r="F880" s="4"/>
     </row>
-    <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="881" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D881" s="4"/>
       <c r="E881" s="4"/>
       <c r="F881" s="4"/>
     </row>
-    <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="882" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D882" s="4"/>
       <c r="E882" s="4"/>
       <c r="F882" s="4"/>
     </row>
-    <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="883" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D883" s="4"/>
       <c r="E883" s="4"/>
       <c r="F883" s="4"/>
     </row>
-    <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="884" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D884" s="4"/>
       <c r="E884" s="4"/>
       <c r="F884" s="4"/>
     </row>
-    <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="885" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D885" s="4"/>
       <c r="E885" s="4"/>
       <c r="F885" s="4"/>
     </row>
-    <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="886" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D886" s="4"/>
       <c r="E886" s="4"/>
       <c r="F886" s="4"/>
     </row>
-    <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="887" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D887" s="4"/>
       <c r="E887" s="4"/>
       <c r="F887" s="4"/>
     </row>
-    <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="888" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D888" s="4"/>
       <c r="E888" s="4"/>
       <c r="F888" s="4"/>
     </row>
-    <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="889" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D889" s="4"/>
       <c r="E889" s="4"/>
       <c r="F889" s="4"/>
     </row>
-    <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="890" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D890" s="4"/>
       <c r="E890" s="4"/>
       <c r="F890" s="4"/>
     </row>
-    <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="891" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D891" s="4"/>
       <c r="E891" s="4"/>
       <c r="F891" s="4"/>
     </row>
-    <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="892" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D892" s="4"/>
       <c r="E892" s="4"/>
       <c r="F892" s="4"/>
     </row>
-    <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="893" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D893" s="4"/>
       <c r="E893" s="4"/>
       <c r="F893" s="4"/>
     </row>
-    <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="894" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D894" s="4"/>
       <c r="E894" s="4"/>
       <c r="F894" s="4"/>
     </row>
-    <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="895" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D895" s="4"/>
       <c r="E895" s="4"/>
       <c r="F895" s="4"/>
     </row>
-    <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="896" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D896" s="4"/>
       <c r="E896" s="4"/>
       <c r="F896" s="4"/>
     </row>
-    <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="897" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D897" s="4"/>
       <c r="E897" s="4"/>
       <c r="F897" s="4"/>
     </row>
-    <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="898" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D898" s="4"/>
       <c r="E898" s="4"/>
       <c r="F898" s="4"/>
     </row>
-    <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="899" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D899" s="4"/>
       <c r="E899" s="4"/>
       <c r="F899" s="4"/>
     </row>
-    <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="900" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D900" s="4"/>
       <c r="E900" s="4"/>
       <c r="F900" s="4"/>
     </row>
-    <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="901" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D901" s="4"/>
       <c r="E901" s="4"/>
       <c r="F901" s="4"/>
     </row>
-    <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="902" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D902" s="4"/>
       <c r="E902" s="4"/>
       <c r="F902" s="4"/>
     </row>
-    <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="903" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D903" s="4"/>
       <c r="E903" s="4"/>
       <c r="F903" s="4"/>
     </row>
-    <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="904" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D904" s="4"/>
       <c r="E904" s="4"/>
       <c r="F904" s="4"/>
     </row>
-    <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="905" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D905" s="4"/>
       <c r="E905" s="4"/>
       <c r="F905" s="4"/>
     </row>
-    <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="906" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D906" s="4"/>
       <c r="E906" s="4"/>
       <c r="F906" s="4"/>
     </row>
-    <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="907" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D907" s="4"/>
       <c r="E907" s="4"/>
       <c r="F907" s="4"/>
     </row>
-    <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="908" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D908" s="4"/>
       <c r="E908" s="4"/>
       <c r="F908" s="4"/>
     </row>
-    <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="909" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D909" s="4"/>
       <c r="E909" s="4"/>
       <c r="F909" s="4"/>
     </row>
-    <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="910" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D910" s="4"/>
       <c r="E910" s="4"/>
       <c r="F910" s="4"/>
     </row>
-    <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="911" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D911" s="4"/>
       <c r="E911" s="4"/>
       <c r="F911" s="4"/>
     </row>
-    <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="912" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D912" s="4"/>
       <c r="E912" s="4"/>
       <c r="F912" s="4"/>
     </row>
-    <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="913" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D913" s="4"/>
       <c r="E913" s="4"/>
       <c r="F913" s="4"/>
     </row>
-    <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="914" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D914" s="4"/>
       <c r="E914" s="4"/>
       <c r="F914" s="4"/>
     </row>
-    <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="915" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D915" s="4"/>
       <c r="E915" s="4"/>
       <c r="F915" s="4"/>
     </row>
-    <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="916" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D916" s="4"/>
       <c r="E916" s="4"/>
       <c r="F916" s="4"/>
     </row>
-    <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="917" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D917" s="4"/>
       <c r="E917" s="4"/>
       <c r="F917" s="4"/>
     </row>
-    <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="918" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D918" s="4"/>
       <c r="E918" s="4"/>
       <c r="F918" s="4"/>
     </row>
-    <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="919" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D919" s="4"/>
       <c r="E919" s="4"/>
       <c r="F919" s="4"/>
     </row>
-    <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="920" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D920" s="4"/>
       <c r="E920" s="4"/>
       <c r="F920" s="4"/>
     </row>
-    <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="921" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D921" s="4"/>
       <c r="E921" s="4"/>
       <c r="F921" s="4"/>
     </row>
-    <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="922" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D922" s="4"/>
       <c r="E922" s="4"/>
       <c r="F922" s="4"/>
     </row>
-    <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="923" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D923" s="4"/>
       <c r="E923" s="4"/>
       <c r="F923" s="4"/>
     </row>
-    <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="924" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D924" s="4"/>
       <c r="E924" s="4"/>
       <c r="F924" s="4"/>
     </row>
-    <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="925" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D925" s="4"/>
       <c r="E925" s="4"/>
       <c r="F925" s="4"/>
     </row>
-    <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="926" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D926" s="4"/>
       <c r="E926" s="4"/>
       <c r="F926" s="4"/>
     </row>
-    <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="927" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D927" s="4"/>
       <c r="E927" s="4"/>
       <c r="F927" s="4"/>
     </row>
-    <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="928" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D928" s="4"/>
       <c r="E928" s="4"/>
       <c r="F928" s="4"/>
     </row>
-    <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="929" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D929" s="4"/>
       <c r="E929" s="4"/>
       <c r="F929" s="4"/>
     </row>
-    <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="930" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D930" s="4"/>
       <c r="E930" s="4"/>
       <c r="F930" s="4"/>
     </row>
-    <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="931" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D931" s="4"/>
       <c r="E931" s="4"/>
       <c r="F931" s="4"/>
     </row>
-    <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="932" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D932" s="4"/>
       <c r="E932" s="4"/>
       <c r="F932" s="4"/>
     </row>
-    <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="933" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D933" s="4"/>
       <c r="E933" s="4"/>
       <c r="F933" s="4"/>
     </row>
-    <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="934" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D934" s="4"/>
       <c r="E934" s="4"/>
       <c r="F934" s="4"/>
     </row>
-    <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="935" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D935" s="4"/>
       <c r="E935" s="4"/>
       <c r="F935" s="4"/>
     </row>
-    <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="936" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D936" s="4"/>
       <c r="E936" s="4"/>
       <c r="F936" s="4"/>
     </row>
-    <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="937" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D937" s="4"/>
       <c r="E937" s="4"/>
       <c r="F937" s="4"/>
     </row>
-    <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="938" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D938" s="4"/>
       <c r="E938" s="4"/>
       <c r="F938" s="4"/>
     </row>
-    <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="939" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D939" s="4"/>
       <c r="E939" s="4"/>
       <c r="F939" s="4"/>
     </row>
-    <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="940" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D940" s="4"/>
       <c r="E940" s="4"/>
       <c r="F940" s="4"/>
     </row>
-    <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="941" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D941" s="4"/>
       <c r="E941" s="4"/>
       <c r="F941" s="4"/>
     </row>
-    <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="942" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D942" s="4"/>
       <c r="E942" s="4"/>
       <c r="F942" s="4"/>
     </row>
-    <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="943" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D943" s="4"/>
       <c r="E943" s="4"/>
       <c r="F943" s="4"/>
     </row>
-    <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="944" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D944" s="4"/>
       <c r="E944" s="4"/>
       <c r="F944" s="4"/>
     </row>
-    <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="945" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D945" s="4"/>
       <c r="E945" s="4"/>
       <c r="F945" s="4"/>
     </row>
-    <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="946" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D946" s="4"/>
       <c r="E946" s="4"/>
       <c r="F946" s="4"/>
     </row>
-    <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="947" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D947" s="4"/>
       <c r="E947" s="4"/>
       <c r="F947" s="4"/>
     </row>
-    <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="948" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D948" s="4"/>
       <c r="E948" s="4"/>
       <c r="F948" s="4"/>
     </row>
-    <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="949" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D949" s="4"/>
       <c r="E949" s="4"/>
       <c r="F949" s="4"/>
     </row>
-    <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="950" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D950" s="4"/>
       <c r="E950" s="4"/>
       <c r="F950" s="4"/>
     </row>
-    <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="951" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D951" s="4"/>
       <c r="E951" s="4"/>
       <c r="F951" s="4"/>
     </row>
-    <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="952" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D952" s="4"/>
       <c r="E952" s="4"/>
       <c r="F952" s="4"/>
     </row>
-    <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="953" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D953" s="4"/>
       <c r="E953" s="4"/>
       <c r="F953" s="4"/>
     </row>
-    <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="954" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D954" s="4"/>
       <c r="E954" s="4"/>
       <c r="F954" s="4"/>
     </row>
-    <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="955" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D955" s="4"/>
       <c r="E955" s="4"/>
       <c r="F955" s="4"/>
     </row>
-    <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="956" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D956" s="4"/>
       <c r="E956" s="4"/>
       <c r="F956" s="4"/>
     </row>
-    <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="957" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D957" s="4"/>
       <c r="E957" s="4"/>
       <c r="F957" s="4"/>
     </row>
-    <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="958" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D958" s="4"/>
       <c r="E958" s="4"/>
       <c r="F958" s="4"/>
     </row>
-    <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="959" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D959" s="4"/>
       <c r="E959" s="4"/>
       <c r="F959" s="4"/>
     </row>
-    <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="960" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D960" s="4"/>
       <c r="E960" s="4"/>
       <c r="F960" s="4"/>
     </row>
-    <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="961" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D961" s="4"/>
       <c r="E961" s="4"/>
       <c r="F961" s="4"/>
     </row>
-    <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="962" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D962" s="4"/>
       <c r="E962" s="4"/>
       <c r="F962" s="4"/>
     </row>
-    <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="963" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D963" s="4"/>
       <c r="E963" s="4"/>
       <c r="F963" s="4"/>
     </row>
-    <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="964" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D964" s="4"/>
       <c r="E964" s="4"/>
       <c r="F964" s="4"/>
     </row>
-    <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="965" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D965" s="4"/>
       <c r="E965" s="4"/>
       <c r="F965" s="4"/>
     </row>
-    <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="966" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D966" s="4"/>
       <c r="E966" s="4"/>
       <c r="F966" s="4"/>
     </row>
-    <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="967" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D967" s="4"/>
       <c r="E967" s="4"/>
       <c r="F967" s="4"/>
     </row>
-    <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="968" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D968" s="4"/>
       <c r="E968" s="4"/>
       <c r="F968" s="4"/>
     </row>
-    <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="969" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D969" s="4"/>
       <c r="E969" s="4"/>
       <c r="F969" s="4"/>
     </row>
-    <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="970" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D970" s="4"/>
       <c r="E970" s="4"/>
       <c r="F970" s="4"/>
     </row>
-    <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="971" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D971" s="4"/>
       <c r="E971" s="4"/>
       <c r="F971" s="4"/>
     </row>
-    <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="972" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D972" s="4"/>
       <c r="E972" s="4"/>
       <c r="F972" s="4"/>
     </row>
-    <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="973" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D973" s="4"/>
       <c r="E973" s="4"/>
       <c r="F973" s="4"/>
     </row>
-    <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="974" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D974" s="4"/>
       <c r="E974" s="4"/>
       <c r="F974" s="4"/>
     </row>
-    <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="975" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D975" s="4"/>
       <c r="E975" s="4"/>
       <c r="F975" s="4"/>
     </row>
-    <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="976" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D976" s="4"/>
       <c r="E976" s="4"/>
       <c r="F976" s="4"/>
     </row>
-    <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="977" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D977" s="4"/>
       <c r="E977" s="4"/>
       <c r="F977" s="4"/>
     </row>
-    <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="978" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D978" s="4"/>
       <c r="E978" s="4"/>
       <c r="F978" s="4"/>
     </row>
-    <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="979" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D979" s="4"/>
       <c r="E979" s="4"/>
       <c r="F979" s="4"/>
     </row>
-    <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="980" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D980" s="4"/>
       <c r="E980" s="4"/>
       <c r="F980" s="4"/>
     </row>
-    <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="981" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D981" s="4"/>
       <c r="E981" s="4"/>
       <c r="F981" s="4"/>
     </row>
-    <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="982" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D982" s="4"/>
       <c r="E982" s="4"/>
       <c r="F982" s="4"/>
     </row>
-    <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="983" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D983" s="4"/>
       <c r="E983" s="4"/>
       <c r="F983" s="4"/>
     </row>
-    <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="984" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D984" s="4"/>
       <c r="E984" s="4"/>
       <c r="F984" s="4"/>
     </row>
-    <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="985" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D985" s="4"/>
       <c r="E985" s="4"/>
       <c r="F985" s="4"/>
     </row>
-    <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="986" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D986" s="4"/>
       <c r="E986" s="4"/>
       <c r="F986" s="4"/>
     </row>
-    <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="987" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D987" s="4"/>
       <c r="E987" s="4"/>
       <c r="F987" s="4"/>
     </row>
-    <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="988" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D988" s="4"/>
       <c r="E988" s="4"/>
       <c r="F988" s="4"/>
     </row>
-    <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="989" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D989" s="4"/>
       <c r="E989" s="4"/>
       <c r="F989" s="4"/>
     </row>
-    <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="990" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D990" s="4"/>
       <c r="E990" s="4"/>
       <c r="F990" s="4"/>
     </row>
-    <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="991" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D991" s="4"/>
       <c r="E991" s="4"/>
       <c r="F991" s="4"/>
     </row>
-    <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="992" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D992" s="4"/>
       <c r="E992" s="4"/>
       <c r="F992" s="4"/>
     </row>
-    <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="993" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D993" s="4"/>
       <c r="E993" s="4"/>
       <c r="F993" s="4"/>
     </row>
-    <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="994" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D994" s="4"/>
       <c r="E994" s="4"/>
       <c r="F994" s="4"/>
     </row>
-    <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="995" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D995" s="4"/>
       <c r="E995" s="4"/>
       <c r="F995" s="4"/>
     </row>
-    <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="996" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D996" s="4"/>
       <c r="E996" s="4"/>
       <c r="F996" s="4"/>
     </row>
-    <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="997" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D997" s="4"/>
       <c r="E997" s="4"/>
       <c r="F997" s="4"/>
     </row>
-    <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="998" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D998" s="4"/>
       <c r="E998" s="4"/>
       <c r="F998" s="4"/>
     </row>
-    <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="999" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D999" s="4"/>
       <c r="E999" s="4"/>
       <c r="F999" s="4"/>
     </row>
-    <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1000" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D1000" s="4"/>
       <c r="E1000" s="4"/>
       <c r="F1000" s="4"/>
     </row>
-    <row r="1001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1001" spans="4:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D1001" s="4"/>
       <c r="E1001" s="4"/>
       <c r="F1001" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="B3:B6 B8:B11 B13:B147" type="list">
+    <dataValidation type="list" allowBlank="1" sqref="B20:B147 B3:B6 B8:B11 B13:B15 B17" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Passed,In Progress,Failed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup scale="64" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="4" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
--- a/TDS.xlsx
+++ b/TDS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Djole\IdeaProjects\qa-job-fair-puzzle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79F9BC5-4153-4BA1-8CC6-F602A11D6CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B7FEF1-D7B9-4C35-A464-88374FC51EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17475" yWindow="480" windowWidth="16140" windowHeight="11595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Description</t>
   </si>
@@ -154,12 +154,6 @@
     </r>
   </si>
   <si>
-    <t>Upon instantiation player's HP is able to be set to more than 20. Documentation states that starting HP should always be 20.</t>
-  </si>
-  <si>
-    <t>Upon instantiation player's HP is able to be set to less than 20. Documentation states that starting HP should always be 20.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Total amount of player HP at the start of the game (expected -&gt; </t>
     </r>
@@ -285,6 +279,33 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>Verify total amount of player HP cannot be set to a negative value</t>
+  </si>
+  <si>
+    <t>Upon instantiation player's HP is able to be set to less than 20. Documentation states that starting HP should always be 20.  -make hp a constant value of 20</t>
+  </si>
+  <si>
+    <t>Upon instantiation player's HP is able to be set to more than 20. Documentation states that starting HP should always be 20.  -make hp a constant value of 20</t>
+  </si>
+  <si>
+    <t>Upon instantiation player's HP is able to be set to a negative value. -make hp a constant value of 20</t>
+  </si>
+  <si>
+    <t>Game doesn't end when one player takes 20 damage, which goes back to Player class testing. See test #3.</t>
+  </si>
+  <si>
+    <t>A player is able to play multiple cards in a single turn.</t>
+  </si>
+  <si>
+    <t>Verify you cannot draw after playing a turn</t>
+  </si>
+  <si>
+    <t>Player can both play and draw in the same turn</t>
+  </si>
+  <si>
+    <t>Test whether the game actually starts</t>
+  </si>
 </sst>
 </file>
 
@@ -401,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -444,6 +465,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,7 +859,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -915,7 +943,7 @@
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>8</v>
@@ -941,7 +969,7 @@
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>8</v>
@@ -953,7 +981,7 @@
     </row>
     <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>6</v>
@@ -1000,7 +1028,7 @@
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>8</v>
@@ -1010,36 +1038,44 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C16" s="15"/>
+    <row r="16" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1052,30 +1088,66 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B20" s="7"/>
+      <c r="A20" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B21" s="7"/>
+    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B22" s="7"/>
+      <c r="A22" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="18"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1105,27 +1177,18 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="B27" s="7"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
       <c r="B28" s="7"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>11</v>
-      </c>
       <c r="B29" s="7"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -1138,15 +1201,15 @@
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="B31" s="7"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="B32" s="7"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -6114,15 +6177,15 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="B20:B147 B3:B6 B8:B11 B13:B15 B17" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="B3:B6 B8:B11 B13:B15 B17 B21:B147" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Passed,In Progress,Failed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup scale="64" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="54" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="4" max="1048575" man="1"/>
+    <brk id="6" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
 </file>